--- a/biology/Botanique/John_Leslie_Dowe/John_Leslie_Dowe.xlsx
+++ b/biology/Botanique/John_Leslie_Dowe/John_Leslie_Dowe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Leslie Dowe est un botaniste australien spécialisé dans les palmiers.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Leslie Dowe est un botaniste australien[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Leslie Dowe est un botaniste australien.
 </t>
         </is>
       </c>
@@ -542,13 +556,15 @@
           <t>Noms publiés (sélection)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Archontophoenix maxima Dowe (1994) Austrobaileya 4(2): 235.
 Balaka streptostachys D. Fuller &amp; Dowe (1999) Palms 43(1): 10.
 Livistona decora ( W.Bull ) Dowe (2004) Austrobaileya 6 : 979.
 Calyptrocalyx hollrungii ( Becc. ) Dowe &amp; MDFerrero (2001) Blumea 46(2): 226.
-(Une liste complète peut être trouvée sur IPNI[2].)
+(Une liste complète peut être trouvée sur IPNI.)
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Publications (sélection)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Dowe, JL (2016) Charles Weldon (de Burgh) Birch (Count Zelling), un collectionneur botanique et zoologique sans prétention du centre et du nord-est du Queensland. Naturaliste du nord du Queensland 46
 Dowe, JL (2016) ODOARDO BECCARI ET ENRICO D'ALBERTIS EN AUSTRALIE ET EN NOUVELLE-ZÉLANDE, 1878 : COLLECTIONS BOTANIQUES ET ZOOLOGIQUES. Documents et actes de la Royal Society of Tasmania 150, 27-41.
